--- a/EndPoints.xlsx
+++ b/EndPoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Ambiente de Trabalho\TripAcc\tripAcc-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1945CEB6-C491-4371-90B9-9E3064680E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7104499-FCF6-45E0-81EF-58E11541BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77FDB6D0-7340-4FF8-9C42-306DB1D34303}"/>
   </bookViews>
